--- a/Task3.5 Burndown.xlsx
+++ b/Task3.5 Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vilanya/Desktop/UNITS/SIT107/Task3.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3188415-2C46-BC47-B444-0003EBEAC541}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F8930-2AF8-7F44-ADD0-D01B8A9F5861}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 3.5" sheetId="7" r:id="rId1"/>
@@ -139,18 +139,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -254,13 +254,13 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>15</c:v>
@@ -272,7 +272,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -795,7 +795,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -804,45 +804,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="11"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>0.375</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="5">
         <v>30</v>
       </c>
@@ -858,10 +858,10 @@
       <c r="A4" s="4">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="5">
         <v>27</v>
       </c>
@@ -877,12 +877,12 @@
       <c r="A5" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5">
         <v>26</v>
@@ -896,12 +896,12 @@
       <c r="A6" s="4">
         <v>0.5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>22</v>
@@ -915,12 +915,12 @@
       <c r="A7" s="4">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5">
         <v>20</v>
@@ -934,10 +934,10 @@
       <c r="A8" s="4">
         <v>0.58333333333333404</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="7">
         <v>15</v>
       </c>
@@ -952,10 +952,10 @@
       <c r="A9" s="4">
         <v>0.625000000000001</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="7">
         <v>12</v>
       </c>
@@ -970,10 +970,10 @@
       <c r="A10" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>4</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="7">
         <v>8</v>
       </c>
@@ -988,12 +988,12 @@
       <c r="A11" s="4">
         <v>0.70833333333333404</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="5">
         <v>4</v>
@@ -1006,10 +1006,10 @@
       <c r="A12" s="4">
         <v>0.750000000000001</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>0</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="6">
         <v>0</v>
       </c>
@@ -1022,21 +1022,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
